--- a/documentation/mac-addressen/project2Acsv_versieP.xlsx
+++ b/documentation/mac-addressen/project2Acsv_versieP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KUleuven\InDoorDeviceLocalisation\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF2F554-390B-48DF-BD80-524A42FCB674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C929CAB-3077-4CB1-B429-F04B879AD647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20355" yWindow="0" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F133C0E4-ABEF-4576-8B01-A9036A0ABA0D}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,7 +1933,7 @@
         <v>274</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C2,15),D2)</f>
+        <f t="shared" ref="E2:E19" si="0">_xlfn.CONCAT(LEFT(C2,15),D2)</f>
         <v>40:01:7a:80:7f:15</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1958,14 +1958,14 @@
         <v>266</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C3,15),D3)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:12:e0:75</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>233</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I55" si="0">CONCATENATE("'",G3,"'",";")</f>
+        <f t="shared" ref="I3:I55" si="1">CONCATENATE("'",G3,"'",";")</f>
         <v>'001';</v>
       </c>
     </row>
@@ -1983,14 +1983,14 @@
         <v>267</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C4,15),D4)</f>
+        <f t="shared" si="0"/>
         <v>00:a7:42:8e:8b:35</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>234</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'002';</v>
       </c>
     </row>
@@ -2008,14 +2008,14 @@
         <v>264</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C5,15),D5)</f>
+        <f t="shared" si="0"/>
         <v>f8:0b:cb:3d:87:65</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>235</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'003';</v>
       </c>
     </row>
@@ -2033,14 +2033,14 @@
         <v>271</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C6,15),D6)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:12:ec:d5</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>236</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'004';</v>
       </c>
     </row>
@@ -2058,14 +2058,14 @@
         <v>271</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C7,15),D7)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:f1:36:d5</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>237</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'005';</v>
       </c>
     </row>
@@ -2083,14 +2083,14 @@
         <v>266</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C8,15),D8)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:ep:23:75</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>238</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'006';</v>
       </c>
     </row>
@@ -2108,14 +2108,14 @@
         <v>262</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C9,15),D9)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:14:08:05</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>279</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'100';</v>
       </c>
     </row>
@@ -2133,14 +2133,14 @@
         <v>267</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C10,15),D10)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:14:05:35</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>280</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'101';</v>
       </c>
     </row>
@@ -2158,14 +2158,14 @@
         <v>268</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C11,15),D11)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:78:55</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>281</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'102';</v>
       </c>
     </row>
@@ -2183,14 +2183,14 @@
         <v>268</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C12,15),D12)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:12:c1:55</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>282</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'103';</v>
       </c>
     </row>
@@ -2208,14 +2208,14 @@
         <v>262</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C13,15),D13)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:56:05</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>283</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'104';</v>
       </c>
     </row>
@@ -2233,14 +2233,14 @@
         <v>270</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C14,15),D14)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:1c:05:b5</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>284</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'105';</v>
       </c>
     </row>
@@ -2258,14 +2258,14 @@
         <v>269</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C15,15),D15)</f>
+        <f t="shared" si="0"/>
         <v>18:80:90:c6:a1:c5</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>285</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'106';</v>
       </c>
     </row>
@@ -2283,14 +2283,14 @@
         <v>266</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C16,15),D16)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:7e:75</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>286</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'200';</v>
       </c>
     </row>
@@ -2308,14 +2308,14 @@
         <v>265</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C17,15),D17)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:12:e8:85</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>287</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'201';</v>
       </c>
     </row>
@@ -2333,14 +2333,14 @@
         <v>262</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C18,15),D18)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:78:05</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>288</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'202';</v>
       </c>
     </row>
@@ -2358,14 +2358,14 @@
         <v>262</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C19,15),D19)</f>
+        <f t="shared" si="0"/>
         <v>18:80:90:c6:a8:05</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>289</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'203';</v>
       </c>
     </row>
@@ -2383,14 +2383,14 @@
         <v>263</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" ref="E20:E21" si="1">_xlfn.CONCAT(LEFT(C20,15),D20)</f>
+        <f t="shared" ref="E20:E21" si="2">_xlfn.CONCAT(LEFT(C20,15),D20)</f>
         <v>40:01:7a:1c:09:25</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>290</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'204';</v>
       </c>
     </row>
@@ -2408,14 +2408,14 @@
         <v>264</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f8:0b:cb:3d:80:65</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>291</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'205';</v>
       </c>
     </row>
@@ -2433,14 +2433,14 @@
         <v>268</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" ref="E22:E40" si="2">_xlfn.CONCAT(LEFT(C22,15),D22)</f>
+        <f t="shared" ref="E22:E40" si="3">_xlfn.CONCAT(LEFT(C22,15),D22)</f>
         <v>00:2c:c8:8b:e2:55</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>292</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'300';</v>
       </c>
     </row>
@@ -2458,14 +2458,14 @@
         <v>277</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:2c:c8:e9:3b:23</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>293</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'301';</v>
       </c>
     </row>
@@ -2483,14 +2483,14 @@
         <v>276</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:2c:c8:6a:ad:C3</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>294</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'302';</v>
       </c>
     </row>
@@ -2508,14 +2508,14 @@
         <v>269</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40:01:7a:14:0f:c5</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>295</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'303';</v>
       </c>
     </row>
@@ -2533,14 +2533,14 @@
         <v>263</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:2c:c8:ed:dc:25</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>296</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'304';</v>
       </c>
     </row>
@@ -2558,14 +2558,14 @@
         <v>271</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:2c:c8:19:24:d5</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>325</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'305';</v>
       </c>
     </row>
@@ -2583,14 +2583,14 @@
         <v>262</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:2c:c8:6a:8f:05</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>297</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'306';</v>
       </c>
     </row>
@@ -2608,14 +2608,14 @@
         <v>272</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2c:5a:0f:09:a9:a5</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>298</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'307';</v>
       </c>
     </row>
@@ -2633,14 +2633,14 @@
         <v>269</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:a7:42:8e:88:c5</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>299</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'308';</v>
       </c>
     </row>
@@ -2658,14 +2658,14 @@
         <v>271</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:2c:c8:e9:24:d5</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>300</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'309';</v>
       </c>
     </row>
@@ -2683,14 +2683,14 @@
         <v>273</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40:01:7a:14:04:f5</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>301</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'400';</v>
       </c>
     </row>
@@ -2708,14 +2708,14 @@
         <v>262</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40:01:7a:13:fc:05</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>302</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'401';</v>
       </c>
     </row>
@@ -2733,14 +2733,14 @@
         <v>263</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18:80:90:dc:c8:25</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>303</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'402';</v>
       </c>
     </row>
@@ -2758,14 +2758,14 @@
         <v>263</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40:01:7a:1c:08:25</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>304</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'403';</v>
       </c>
     </row>
@@ -2783,14 +2783,14 @@
         <v>267</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40:01:7a:14:10:35</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>305</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'404';</v>
       </c>
     </row>
@@ -2808,14 +2808,14 @@
         <v>271</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:a7:42:8e:90:d5</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>306</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'405';</v>
       </c>
     </row>
@@ -2833,14 +2833,14 @@
         <v>266</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40:01:7a:1c:0a:75</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>307</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'406';</v>
       </c>
     </row>
@@ -2858,14 +2858,14 @@
         <v>269</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:2c:c8:f0:fa:c5</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>308</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'407';</v>
       </c>
     </row>
@@ -2883,14 +2883,14 @@
         <v>263</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00:2c:c8:ed:c9:25</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>309</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'408';</v>
       </c>
     </row>
@@ -2908,14 +2908,14 @@
         <v>272</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" ref="E41:E46" si="3">_xlfn.CONCAT(LEFT(C41,15),D41)</f>
+        <f t="shared" ref="E41:E46" si="4">_xlfn.CONCAT(LEFT(C41,15),D41)</f>
         <v>70:df:2f:e2:06:a5</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>310</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'500';</v>
       </c>
     </row>
@@ -2933,14 +2933,14 @@
         <v>265</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70:df:2f:e2:06:85</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>311</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'501';</v>
       </c>
     </row>
@@ -2958,14 +2958,14 @@
         <v>275</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70:df:2f:ec:16:45</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>312</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'502';</v>
       </c>
     </row>
@@ -2983,14 +2983,14 @@
         <v>266</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40:01:7a:55:84:75</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>313</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'503';</v>
       </c>
     </row>
@@ -3008,14 +3008,14 @@
         <v>270</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18:80:90:dc:bf:b5</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>314</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'504';</v>
       </c>
     </row>
@@ -3033,14 +3033,14 @@
         <v>264</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70:df:2f:e7:b5:65</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>315</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'505';</v>
       </c>
     </row>
@@ -3058,14 +3058,14 @@
         <v>266</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f t="shared" ref="E47:E55" si="4">_xlfn.CONCAT(LEFT(C47,15),D47)</f>
+        <f t="shared" ref="E47:E55" si="5">_xlfn.CONCAT(LEFT(C47,15),D47)</f>
         <v>70:df:2f:e7:e4:75</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>316</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'600';</v>
       </c>
     </row>
@@ -3083,14 +3083,14 @@
         <v>273</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70:df:2f:e2:0a:f5</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>317</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'601';</v>
       </c>
     </row>
@@ -3108,14 +3108,14 @@
         <v>268</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70:df:2f:ec:16:55</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>318</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'602';</v>
       </c>
     </row>
@@ -3133,14 +3133,14 @@
         <v>275</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70:df:2f:ec:c3:45</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>319</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'603';</v>
       </c>
     </row>
@@ -3158,14 +3158,14 @@
         <v>264</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70:df:2f:7b:8e:65</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>320</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'604';</v>
       </c>
     </row>
@@ -3183,14 +3183,14 @@
         <v>268</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70:df:2f:34:dc:55</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>321</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'605';</v>
       </c>
     </row>
@@ -3208,14 +3208,14 @@
         <v>263</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40:01:7a:1c:05:25</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>322</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'606';</v>
       </c>
     </row>
@@ -3233,14 +3233,14 @@
         <v>275</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70:df:2f:ec:c5:45</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>323</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'607';</v>
       </c>
     </row>
@@ -3258,14 +3258,14 @@
         <v>272</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>f8:0b:cb:3d:82:a5</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>324</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'608';</v>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
         <v>15</v>
       </c>
       <c r="N2" t="str">
-        <f>LEFT(I2,15)</f>
+        <f t="shared" ref="N2:N33" si="0">LEFT(I2,15)</f>
         <v>40:01:7a:80:7f:</v>
       </c>
       <c r="P2" t="str">
@@ -4240,35 +4240,35 @@
         <v>233</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I62" si="0">CONCATENATE(E3)</f>
+        <f t="shared" ref="I3:I62" si="1">CONCATENATE(E3)</f>
         <v>40:01:7a:12:e0:74</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J62" si="1">RIGHT(I3,2)</f>
+        <f t="shared" ref="J3:J62" si="2">RIGHT(I3,2)</f>
         <v>74</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K62" si="2">HEX2DEC(J3)</f>
+        <f t="shared" ref="K3:K62" si="3">HEX2DEC(J3)</f>
         <v>116</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L62" si="3">K3+2</f>
+        <f t="shared" ref="L3:L62" si="4">K3+2</f>
         <v>118</v>
       </c>
       <c r="M3" s="3" t="str">
-        <f t="shared" ref="M3:M62" si="4">DEC2HEX(L3)</f>
+        <f t="shared" ref="M3:M62" si="5">DEC2HEX(L3)</f>
         <v>76</v>
       </c>
       <c r="N3" t="str">
-        <f>LEFT(I3,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:12:e0:</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P62" si="5">CONCATENATE(N3,R3,";")</f>
+        <f t="shared" ref="P3:P62" si="6">CONCATENATE(N3,R3,";")</f>
         <v>40:01:7a:12:e0:76;</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R62" si="6">IF(L3&lt;10,_xlfn.CONCAT("0",M3),M3)</f>
+        <f t="shared" ref="R3:R62" si="7">IF(L3&lt;10,_xlfn.CONCAT("0",M3),M3)</f>
         <v>76</v>
       </c>
     </row>
@@ -4295,35 +4295,35 @@
         <v>234</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:a7:42:8e:8b:33</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="N4" t="str">
-        <f>LEFT(I4,15)</f>
+        <f t="shared" si="0"/>
         <v>00:a7:42:8e:8b:</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:a7:42:8e:8b:35;</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
@@ -4350,35 +4350,35 @@
         <v>235</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>f8:0b:cb:3d:87:63</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="N5" t="str">
-        <f>LEFT(I5,15)</f>
+        <f t="shared" si="0"/>
         <v>f8:0b:cb:3d:87:</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>f8:0b:cb:3d:87:65;</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
     </row>
@@ -4405,35 +4405,35 @@
         <v>236</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:12:ec:d3</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d3</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D5</v>
       </c>
       <c r="N6" t="str">
-        <f>LEFT(I6,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:12:ec:</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:12:ec:D5;</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>D5</v>
       </c>
     </row>
@@ -4460,35 +4460,35 @@
         <v>237</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:f1:36:d2</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d2</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D4</v>
       </c>
       <c r="N7" t="str">
-        <f>LEFT(I7,15)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:f1:36:</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:f1:36:D4;</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>D4</v>
       </c>
     </row>
@@ -4515,35 +4515,35 @@
         <v>238</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:ep:23:79</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7B</v>
       </c>
       <c r="N8" t="str">
-        <f>LEFT(I8,15)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:ep:23:</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:ep:23:7B;</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7B</v>
       </c>
     </row>
@@ -4567,35 +4567,35 @@
         <v>242</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:e9:23:73</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="N9" t="str">
-        <f>LEFT(I9,15)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:e9:23:</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:e9:23:75;</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
@@ -4619,35 +4619,35 @@
         <v>245</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:f1:36:d3</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d3</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D5</v>
       </c>
       <c r="N10" t="str">
-        <f>LEFT(I10,15)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:f1:36:</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:f1:36:D5;</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>D5</v>
       </c>
     </row>
@@ -4671,35 +4671,35 @@
         <v>248</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:01:7a:12:e0:73</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="N11" t="str">
-        <f>LEFT(I11,15)</f>
+        <f t="shared" si="0"/>
         <v>00:01:7a:12:e0:</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:01:7a:12:e0:75;</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
@@ -4723,34 +4723,34 @@
         <v>258</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">40:01:7a:12:e0:73  </v>
       </c>
       <c r="J12">
         <v>73</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="N12" t="str">
-        <f>LEFT(I12,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:12:e0:</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:12:e0:75;</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
@@ -4777,35 +4777,35 @@
         <v>100</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:14:08:03</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M13" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="N13" t="str">
-        <f>LEFT(I13,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:14:08:</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:14:08:05;</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>05</v>
       </c>
     </row>
@@ -4832,35 +4832,35 @@
         <v>101</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:14:05:33</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="N14" t="str">
-        <f>LEFT(I14,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:14:05:</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:14:05:35;</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
@@ -4887,35 +4887,35 @@
         <v>102</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:80:78:53</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="N15" t="str">
-        <f>LEFT(I15,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:78:</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:80:78:55;</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
     </row>
@@ -4942,35 +4942,35 @@
         <v>103</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:12:c1:53</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="N16" t="str">
-        <f>LEFT(I16,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:12:c1:</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:12:c1:55;</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
     </row>
@@ -4997,35 +4997,35 @@
         <v>104</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:80:56:01</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="str">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="M17" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
       <c r="N17" t="str">
-        <f>LEFT(I17,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:56:</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:80:56:03;</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>03</v>
       </c>
     </row>
@@ -5052,35 +5052,35 @@
         <v>105</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:80:56:01</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="M18" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
       <c r="N18" t="str">
-        <f>LEFT(I18,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:56:</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:80:56:03;</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>03</v>
       </c>
     </row>
@@ -5107,35 +5107,35 @@
         <v>106</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18:80:90:c6:a1:c3</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>c3</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
       <c r="N19" t="str">
-        <f>LEFT(I19,15)</f>
+        <f t="shared" si="0"/>
         <v>18:80:90:c6:a1:</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18:80:90:c6:a1:C5;</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>C5</v>
       </c>
     </row>
@@ -5159,35 +5159,35 @@
         <v>107</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:1c:05:b3</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>b3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>181</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>B5</v>
       </c>
       <c r="N20" t="str">
-        <f>LEFT(I20,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:1c:05:</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:1c:05:B5;</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B5</v>
       </c>
     </row>
@@ -5211,35 +5211,35 @@
         <v>108</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:80:56:03</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="M21" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="N21" t="str">
-        <f>LEFT(I21,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:56:</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:80:56:05;</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>05</v>
       </c>
     </row>
@@ -5266,35 +5266,35 @@
         <v>200</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:80:7e:7c</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7c</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7E</v>
       </c>
       <c r="N22" t="str">
-        <f>LEFT(I22,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:7e:</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:80:7e:7E;</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7E</v>
       </c>
     </row>
@@ -5321,35 +5321,35 @@
         <v>201</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:12:e8:83</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="N23" t="str">
-        <f>LEFT(I23,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:12:e8:</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:12:e8:85;</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
     </row>
@@ -5376,35 +5376,35 @@
         <v>202</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:80:78:03</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="M24" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="N24" t="str">
-        <f>LEFT(I24,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:78:</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:80:78:05;</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>05</v>
       </c>
     </row>
@@ -5431,35 +5431,35 @@
         <v>203</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18:80:90:c6:a8:03</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="M25" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="N25" t="str">
-        <f>LEFT(I25,15)</f>
+        <f t="shared" si="0"/>
         <v>18:80:90:c6:a8:</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18:80:90:c6:a8:05;</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>05</v>
       </c>
     </row>
@@ -5486,35 +5486,35 @@
         <v>204</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:1c:09:23</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N26" t="str">
-        <f>LEFT(I26,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:1c:09:</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:1c:09:25;</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
@@ -5541,35 +5541,35 @@
         <v>205</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>f8:0b:cb:3d:80:63</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="N27" t="str">
-        <f>LEFT(I27,15)</f>
+        <f t="shared" si="0"/>
         <v>f8:0b:cb:3d:80:</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>f8:0b:cb:3d:80:65;</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
     </row>
@@ -5593,35 +5593,35 @@
         <v>206</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:80:7e:73</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="N28" t="str">
-        <f>LEFT(I28,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:80:7e:</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:80:7e:75;</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
@@ -5648,35 +5648,35 @@
         <v>300</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:8b:e2:53</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="N29" t="str">
-        <f>LEFT(I29,15)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:8b:e2:</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:8b:e2:55;</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
     </row>
@@ -5703,35 +5703,35 @@
         <v>301</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:e9:3b:21</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="N30" t="str">
-        <f>LEFT(I30,15)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:e9:3b:</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:e9:3b:23;</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
     </row>
@@ -5758,35 +5758,35 @@
         <v>302</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:6a:ad:c1</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>c1</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C3</v>
       </c>
       <c r="N31" t="str">
-        <f>LEFT(I31,15)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:6a:ad:</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:6a:ad:C3;</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>C3</v>
       </c>
     </row>
@@ -5813,35 +5813,35 @@
         <v>303</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:14:0f:c3</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>c3</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
       <c r="N32" t="str">
-        <f>LEFT(I32,15)</f>
+        <f t="shared" si="0"/>
         <v>40:01:7a:14:0f:</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:14:0f:C5;</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>C5</v>
       </c>
     </row>
@@ -5868,35 +5868,35 @@
         <v>304</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:ed:dc:23</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N33" t="str">
-        <f>LEFT(I33,15)</f>
+        <f t="shared" si="0"/>
         <v>00:2c:c8:ed:dc:</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:ed:dc:25;</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
@@ -5923,35 +5923,35 @@
         <v>305</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:19:24:d3</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d3</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="M34" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D5</v>
       </c>
       <c r="N34" t="str">
-        <f>LEFT(I34,15)</f>
+        <f t="shared" ref="N34:N62" si="8">LEFT(I34,15)</f>
         <v>00:2c:c8:19:24:</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:19:24:D5;</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>D5</v>
       </c>
     </row>
@@ -5978,35 +5978,35 @@
         <v>306</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:6a:8f:03</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="M35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="N35" t="str">
-        <f>LEFT(I35,15)</f>
+        <f t="shared" si="8"/>
         <v>00:2c:c8:6a:8f:</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:6a:8f:05;</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>05</v>
       </c>
     </row>
@@ -6033,35 +6033,35 @@
         <v>307</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2c:5a:0f:09:a9:a3</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>a3</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>165</v>
       </c>
       <c r="M36" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A5</v>
       </c>
       <c r="N36" t="str">
-        <f>LEFT(I36,15)</f>
+        <f t="shared" si="8"/>
         <v>2c:5a:0f:09:a9:</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2c:5a:0f:09:a9:A5;</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A5</v>
       </c>
     </row>
@@ -6088,35 +6088,35 @@
         <v>308</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:a7:42:8e:88:c3</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>c3</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
       <c r="M37" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
       <c r="N37" t="str">
-        <f>LEFT(I37,15)</f>
+        <f t="shared" si="8"/>
         <v>00:a7:42:8e:88:</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:a7:42:8e:88:C5;</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>C5</v>
       </c>
     </row>
@@ -6140,35 +6140,35 @@
         <v>309</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:e9:24:d3</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d3</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D5</v>
       </c>
       <c r="N38" t="str">
-        <f>LEFT(I38,15)</f>
+        <f t="shared" si="8"/>
         <v>00:2c:c8:e9:24:</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:e9:24:D5;</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>D5</v>
       </c>
     </row>
@@ -6195,35 +6195,35 @@
         <v>400</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:14:04:f3</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f3</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="M39" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F5</v>
       </c>
       <c r="N39" t="str">
-        <f>LEFT(I39,15)</f>
+        <f t="shared" si="8"/>
         <v>40:01:7a:14:04:</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:14:04:F5;</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>F5</v>
       </c>
     </row>
@@ -6250,35 +6250,35 @@
         <v>401</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:13:fc:03</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="M40" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="N40" t="str">
-        <f>LEFT(I40,15)</f>
+        <f t="shared" si="8"/>
         <v>40:01:7a:13:fc:</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:13:fc:05;</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>05</v>
       </c>
     </row>
@@ -6305,35 +6305,35 @@
         <v>402</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18:80:90:dc:c8:23</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M41" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N41" t="str">
-        <f>LEFT(I41,15)</f>
+        <f t="shared" si="8"/>
         <v>18:80:90:dc:c8:</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18:80:90:dc:c8:25;</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
@@ -6360,35 +6360,35 @@
         <v>403</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:1c:08:23</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M42" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N42" t="str">
-        <f>LEFT(I42,15)</f>
+        <f t="shared" si="8"/>
         <v>40:01:7a:1c:08:</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:1c:08:25;</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
@@ -6415,35 +6415,35 @@
         <v>404</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:14:10:33</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="L43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="M43" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="N43" t="str">
-        <f>LEFT(I43,15)</f>
+        <f t="shared" si="8"/>
         <v>40:01:7a:14:10:</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:14:10:35;</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
@@ -6470,35 +6470,35 @@
         <v>405</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:a7:42:8e:90:d3</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d3</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="L44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="M44" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D5</v>
       </c>
       <c r="N44" t="str">
-        <f>LEFT(I44,15)</f>
+        <f t="shared" si="8"/>
         <v>00:a7:42:8e:90:</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:a7:42:8e:90:D5;</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>D5</v>
       </c>
     </row>
@@ -6525,35 +6525,35 @@
         <v>406</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:1c:0a:73</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="L45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="M45" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="N45" t="str">
-        <f>LEFT(I45,15)</f>
+        <f t="shared" si="8"/>
         <v>40:01:7a:1c:0a:</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:1c:0a:75;</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
@@ -6580,35 +6580,35 @@
         <v>407</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:f0:fa:c3</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>c3</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="L46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
       <c r="M46" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
       <c r="N46" t="str">
-        <f>LEFT(I46,15)</f>
+        <f t="shared" si="8"/>
         <v>00:2c:c8:f0:fa:</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:f0:fa:C5;</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>C5</v>
       </c>
     </row>
@@ -6635,35 +6635,35 @@
         <v>408</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00:2c:c8:ed:c9:23</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M47" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N47" t="str">
-        <f>LEFT(I47,15)</f>
+        <f t="shared" si="8"/>
         <v>00:2c:c8:ed:c9:</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00:2c:c8:ed:c9:25;</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
@@ -6690,35 +6690,35 @@
         <v>500</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:e2:06:a3</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>a3</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
       <c r="L48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>165</v>
       </c>
       <c r="M48" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A5</v>
       </c>
       <c r="N48" t="str">
-        <f>LEFT(I48,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:e2:06:</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:e2:06:A5;</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A5</v>
       </c>
     </row>
@@ -6745,35 +6745,35 @@
         <v>501</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:e2:06:83</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="L49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="M49" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="N49" t="str">
-        <f>LEFT(I49,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:e2:06:</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:e2:06:85;</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
     </row>
@@ -6800,35 +6800,35 @@
         <v>502</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:ec:16:43</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="L50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="M50" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="N50" t="str">
-        <f>LEFT(I50,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:ec:16:</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:ec:16:45;</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
     </row>
@@ -6855,35 +6855,35 @@
         <v>503</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:55:84:73</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="L51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="M51" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="N51" t="str">
-        <f>LEFT(I51,15)</f>
+        <f t="shared" si="8"/>
         <v>40:01:7a:55:84:</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:55:84:75;</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
@@ -6910,35 +6910,35 @@
         <v>504</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18:80:90:dc:bf:b3</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>b3</v>
       </c>
       <c r="K52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
       <c r="L52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>181</v>
       </c>
       <c r="M52" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>B5</v>
       </c>
       <c r="N52" t="str">
-        <f>LEFT(I52,15)</f>
+        <f t="shared" si="8"/>
         <v>18:80:90:dc:bf:</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18:80:90:dc:bf:B5;</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B5</v>
       </c>
     </row>
@@ -6965,35 +6965,35 @@
         <v>505</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:e7:b5:63</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="K53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="L53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="M53" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="N53" t="str">
-        <f>LEFT(I53,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:e7:b5:</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:e7:b5:65;</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
     </row>
@@ -7020,35 +7020,35 @@
         <v>600</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:e7:e4:73</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="K54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="L54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="M54" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="N54" t="str">
-        <f>LEFT(I54,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:e7:e4:</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:e7:e4:75;</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
@@ -7075,35 +7075,35 @@
         <v>601</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:e2:0a:f3</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f3</v>
       </c>
       <c r="K55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="L55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="M55" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F5</v>
       </c>
       <c r="N55" t="str">
-        <f>LEFT(I55,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:e2:0a:</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:e2:0a:F5;</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>F5</v>
       </c>
     </row>
@@ -7130,35 +7130,35 @@
         <v>602</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:ec:16:53</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="K56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="L56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="M56" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="N56" t="str">
-        <f>LEFT(I56,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:ec:16:</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:ec:16:55;</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
     </row>
@@ -7185,35 +7185,35 @@
         <v>603</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:ec:c3:43</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="K57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="L57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="M57" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="N57" t="str">
-        <f>LEFT(I57,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:ec:c3:</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:ec:c3:45;</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
     </row>
@@ -7240,35 +7240,35 @@
         <v>604</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:7b:8e:63</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="K58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="L58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="M58" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="N58" t="str">
-        <f>LEFT(I58,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:7b:8e:</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:7b:8e:65;</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
     </row>
@@ -7295,35 +7295,35 @@
         <v>605</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:34:dc:53</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="K59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="L59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="M59" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="N59" t="str">
-        <f>LEFT(I59,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:34:dc:</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:34:dc:55;</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
     </row>
@@ -7350,35 +7350,35 @@
         <v>606</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40:01:7a:1c:05:23</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M60" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N60" t="str">
-        <f>LEFT(I60,15)</f>
+        <f t="shared" si="8"/>
         <v>40:01:7a:1c:05:</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40:01:7a:1c:05:25;</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
@@ -7408,35 +7408,35 @@
         <v>218</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70:df:2f:ec:c5:43</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="K61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="L61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="M61" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="N61" t="str">
-        <f>LEFT(I61,15)</f>
+        <f t="shared" si="8"/>
         <v>70:df:2f:ec:c5:</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70:df:2f:ec:c5:45;</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
     </row>
@@ -7463,35 +7463,35 @@
         <v>608</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>f8:0b:cb:3d:82:a3</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>a3</v>
       </c>
       <c r="K62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
       <c r="L62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>165</v>
       </c>
       <c r="M62" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A5</v>
       </c>
       <c r="N62" t="str">
-        <f>LEFT(I62,15)</f>
+        <f t="shared" si="8"/>
         <v>f8:0b:cb:3d:82:</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>f8:0b:cb:3d:82:A5;</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A5</v>
       </c>
     </row>
